--- a/addon/bot_message/template/run_linkedin_message.xlsx
+++ b/addon/bot_message/template/run_linkedin_message.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\document\HK6\TT\sam\addon\bot_message\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data HD/untitled folder/2021/MAL/addon/bot_message/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E75AC1-A57C-4177-85FF-2D15F1B1EA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182D14F0-2029-E346-A952-468DD9884909}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MESSAGE" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>SUBJECT</t>
   </si>
@@ -61,19 +61,13 @@
     <t>DATE_MODIFIED</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/abc</t>
+  </si>
+  <si>
     <t>EMAIL</t>
   </si>
   <si>
     <t>abc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/tom-macdougall-705b221/</t>
-  </si>
-  <si>
-    <t>xyz@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ryanlehr/</t>
   </si>
 </sst>
 </file>
@@ -496,9 +490,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -527,15 +521,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -543,7 +537,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -555,29 +549,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{0C4153A9-3BE2-4D42-9726-49DE5AC7515E}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{6696CF4F-3EA3-44A7-991C-C1DF1AF4743D}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{2213D156-7F57-44C7-875A-18B1B1378E81}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{913B627D-80A0-4F6D-8C13-EB0048570093}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{0C4153A9-3BE2-4D42-9726-49DE5AC7515E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
